--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MomokaKajii\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518EEBB0-22E9-4E7D-B904-8E48A18F698B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB643844-FB95-4A9D-A09E-DEBCB9E74029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="212">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -290,17 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <rPh sb="0" eb="2">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
@@ -911,13 +900,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="4">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1139,16 +1121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページを離れたら0に戻る</t>
-    <rPh sb="4" eb="5">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数人が評価する　１対多</t>
     <rPh sb="0" eb="2">
       <t>スウニン</t>
@@ -1169,6 +1141,221 @@
     <rPh sb="1" eb="2">
       <t>タイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを離れたら0に戻るjs</t>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバックID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選考面接ID</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選考書類ID</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選考その他ID</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー、 社員番号</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合説、模擬面接系、座談会系→評価がないもの</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウセツ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>モギメンセツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ザダンカイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合説</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬面接申し込み</t>
+    <rPh sb="0" eb="4">
+      <t>モギメンセツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬面接予約</t>
+    <rPh sb="0" eb="4">
+      <t>モギメンセツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>模擬面接参加</t>
+    <rPh sb="0" eb="4">
+      <t>モギメンセツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座談会1</t>
+    <rPh sb="0" eb="3">
+      <t>ザダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座談会2</t>
+    <rPh sb="0" eb="3">
+      <t>ザダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント種類（e_category）</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3days</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初級</t>
+    <rPh sb="0" eb="2">
+      <t>ショキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中級</t>
+    <rPh sb="0" eb="2">
+      <t>チュウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターン種類（i_category）</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苗字</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_category</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,7 +1403,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,6 +1419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,6 +1520,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,10 +1879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1698,12 +1894,12 @@
     <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2">
+    <row r="1" spans="1:9" ht="19.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1909,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1723,19 +1919,19 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1766,10 +1962,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1784,12 +1980,12 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>24</v>
@@ -1799,12 +1995,12 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -1814,7 +2010,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1829,7 +2025,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1844,7 +2040,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1859,7 +2055,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1874,7 +2070,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1888,6 +2084,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3">
@@ -1923,7 +2120,6 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3">
@@ -2098,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2158,7 +2354,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2166,7 +2362,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2215,23 +2411,27 @@
       <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E10" s="9">
         <v>6</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
@@ -2242,13 +2442,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="9">
         <v>10</v>
@@ -2258,7 +2458,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L31" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
@@ -2270,13 +2470,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E12" s="9">
         <v>3</v>
@@ -2296,13 +2496,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -2322,13 +2522,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -2338,7 +2538,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2350,13 +2550,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E15" s="9">
         <v>10</v>
@@ -2366,7 +2566,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -2378,13 +2578,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="9">
         <v>10</v>
@@ -2394,7 +2594,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -2406,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E17" s="9">
         <v>10</v>
@@ -2422,7 +2622,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -2434,13 +2634,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="9">
         <v>100</v>
@@ -2460,13 +2660,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E19" s="9">
         <v>10</v>
@@ -2476,7 +2676,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -2488,13 +2688,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="9">
         <v>10</v>
@@ -2504,7 +2704,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -2516,13 +2716,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -2532,7 +2732,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -2544,13 +2744,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -2560,7 +2760,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
@@ -2572,13 +2772,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -2588,7 +2788,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
@@ -2600,13 +2800,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" s="9">
         <v>10</v>
@@ -2616,7 +2816,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
@@ -2628,13 +2828,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E25" s="9">
         <v>10</v>
@@ -2644,7 +2844,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
@@ -2656,13 +2856,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="9">
         <v>10</v>
@@ -2672,7 +2872,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
@@ -2684,13 +2884,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E27" s="9">
         <v>10</v>
@@ -2700,7 +2900,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
@@ -2712,13 +2912,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E28" s="9">
         <v>10</v>
@@ -2728,7 +2928,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
@@ -2740,13 +2940,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -2756,7 +2956,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
@@ -2771,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" s="9">
         <v>200</v>
@@ -2794,28 +2994,30 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v>se_id int (4)</v>
@@ -2844,7 +3046,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2958,27 +3160,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2990,13 +3192,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3004,7 +3206,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3018,13 +3220,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -3032,7 +3234,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3046,13 +3248,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3060,11 +3262,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3076,13 +3278,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -3090,13 +3292,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3108,13 +3310,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -3122,13 +3324,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3403,7 +3605,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3517,31 +3719,33 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>f_id int (4),</v>
+        <v>f_id int (6),</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3549,13 +3753,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -3563,11 +3767,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3579,13 +3783,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -3593,11 +3797,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3609,13 +3813,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3625,7 +3829,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3637,13 +3841,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
@@ -3941,2253 +4145,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81F8154-F1DC-4119-A751-A01A05B1C5C9}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Template (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>t_id int (4),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="3">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>t_title varchar (50),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>t_content varchar (1000)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Student (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
-        <v>s_id int (6),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L21" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
-        <v>s_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>s_kana varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>s_contexts varchar (2),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="3">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>s_univercity varchar (20),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>s_faculty varchar (20),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="3">
-        <v>20</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>s_department varchar (20),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>s_address varchar (100),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>s_pcmail varchar (50),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="3">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>s_mobilemail varchar (50),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v>s_careertasu varchar (1),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>s_mynavi varchar (1),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L22" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(B23&lt;&gt;"",",","")</f>
-        <v>s_rikunavi varchar (1),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" ref="L23:L29" si="1">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>alleditflag int (1)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A566B-E943-45A7-86E3-C51997608A25}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Intern (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L20" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
-        <v>s_id int (6),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>i_category varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>i_date varchar (10),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>i_meeting varchar (1),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>i_submit varchar (1),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>i_acceptance varchar (1),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>i_document varchar (1),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>i_id int (4),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>i_attend varchar (1),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="13.8" customHeight="1">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v>applyflag varchar (1)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA4437-5A37-4D7E-A51B-DA5C079F568B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table SelectionFace (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
-        <v>s_id int (6),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
-        <v>sf_category varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>sf_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>sf_score int (1),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>sf_id int (4)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4AB04-4881-4AE9-863C-D4BDBAE4DA20}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6241,7 +4198,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6254,8 +4211,8 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6297,89 +4254,93 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Event (</v>
+        <v>create table Template (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
+      <c r="B10" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>153</v>
+        <v>58</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
-        <v>s_id int (6),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>t_id int (4),</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>145</v>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>152</v>
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
-        <v>e_category varchar (20),</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>t_title varchar (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>91</v>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>152</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>e_date varchar (10),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>t_content varchar (1000),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6387,31 +4348,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>155</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>e_id int (4)</v>
+        <v>t_category varchar (20)</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6446,7 +4401,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6464,7 +4419,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6482,7 +4437,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6500,7 +4455,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6518,7 +4473,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6536,7 +4491,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6554,7 +4509,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6572,7 +4527,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6590,7 +4545,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6608,7 +4563,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6626,7 +4581,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6644,7 +4599,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6662,7 +4617,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6680,7 +4635,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6698,7 +4653,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6713,12 +4668,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6767,8 +4722,8 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
+      <c r="C4" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6776,16 +4731,13 @@
       <c r="E4" s="3"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="J4" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6827,30 +4779,38 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table SelectionText (</v>
+        <v>create table Student (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>153</v>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
@@ -6860,14 +4820,1259 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L25" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <v>s_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>s_kana varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>s_contexts varchar (2),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>s_univercity varchar (20),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>s_faculty varchar (20),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>s_department varchar (20),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>s_address varchar (100),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3">
+        <v>50</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>s_pcmail varchar (50),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="3">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>s_mobilemail varchar (50),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>s_careertasu varchar (1),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>s_mynavi varchar (1),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>s_rikunavi varchar (1),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>s_other varchar (1),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>alleditflag int (1)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" ref="L23:L29" si="1">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A566B-E943-45A7-86E3-C51997608A25}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Intern (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L20" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <v>s_id int (6),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>i_category varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>i_date varchar (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>i_meeting varchar (1),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>i_submit varchar (1),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>i_acceptance varchar (1),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>i_document varchar (1),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>i_id int (4),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>i_attend varchar (1),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.8" customHeight="1">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>applyflag varchar (1)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="J32" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA4437-5A37-4D7E-A51B-DA5C079F568B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table SelectionFace (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <v>s_id int (6),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -6879,7 +6084,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
-        <v>st_category varchar (20),</v>
+        <v>sf_category varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6887,13 +6092,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -6905,7 +6110,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>st_name varchar (20),</v>
+        <v>sf_name varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6913,13 +6118,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -6931,7 +6136,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>st_score int (1),</v>
+        <v>sf_score int (1),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6939,31 +6144,33 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>st_id int (4)</v>
+        <v>sf_id int (4)</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7245,4 +6452,1116 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4AB04-4881-4AE9-863C-D4BDBAE4DA20}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Event (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <v>s_id int (6),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <v>e_category varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>e_date varchar (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>e_id int (4)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="J32" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="J4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table SelectionText (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <v>s_id int (6),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <v>st_category varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>st_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>st_score int (1),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>st_id int (4)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MomokaKajii\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB643844-FB95-4A9D-A09E-DEBCB9E74029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC07DD-3E1F-4057-9E54-5FAA5B988A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1356,6 +1356,71 @@
   </si>
   <si>
     <t>t_category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価書類種類(st_category)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己PR文</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴書</t>
+    <rPh sb="0" eb="3">
+      <t>リレキショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書類選考</t>
+    <rPh sb="0" eb="4">
+      <t>ショルイセンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面接種類(sf_category)</t>
+    <rPh sb="0" eb="2">
+      <t>メンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一次</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次</t>
+    <rPh sb="0" eb="2">
+      <t>ニジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1882,7 +1947,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2295,7 +2360,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2447,8 +2512,8 @@
       <c r="C11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>150</v>
+      <c r="D11" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E11" s="9">
         <v>10</v>
@@ -2462,7 +2527,7 @@
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L31" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
-        <v>se_selectiondate varchar (10),</v>
+        <v>se_selectiondate date (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2555,8 +2620,8 @@
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>150</v>
+      <c r="D15" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E15" s="9">
         <v>10</v>
@@ -2570,7 +2635,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>se_gettextdate varchar (10),</v>
+        <v>se_gettextdate date (10),</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2583,8 +2648,8 @@
       <c r="C16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>150</v>
+      <c r="D16" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E16" s="9">
         <v>10</v>
@@ -2598,7 +2663,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>se_no varchar (10),</v>
+        <v>se_no date (10),</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2611,8 +2676,8 @@
       <c r="C17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>150</v>
+      <c r="D17" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E17" s="9">
         <v>10</v>
@@ -2626,7 +2691,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>se_ok varchar (10),</v>
+        <v>se_ok date (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2665,8 +2730,8 @@
       <c r="C19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>150</v>
+      <c r="D19" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E19" s="9">
         <v>10</v>
@@ -2680,7 +2745,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>se_sendok varchar (10),</v>
+        <v>se_sendok date (10),</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2693,8 +2758,8 @@
       <c r="C20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>150</v>
+      <c r="D20" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E20" s="9">
         <v>10</v>
@@ -2708,7 +2773,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>se_earlyok varchar (10),</v>
+        <v>se_earlyok date (10),</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2721,8 +2786,8 @@
       <c r="C21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>150</v>
+      <c r="D21" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -2736,7 +2801,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>se_earlyno varchar (10),</v>
+        <v>se_earlyno date (10),</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2805,8 +2870,8 @@
       <c r="C24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>150</v>
+      <c r="D24" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E24" s="9">
         <v>10</v>
@@ -2820,7 +2885,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>se_firstno varchar (10),</v>
+        <v>se_firstno date (10),</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2833,8 +2898,8 @@
       <c r="C25" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>150</v>
+      <c r="D25" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E25" s="9">
         <v>10</v>
@@ -2848,7 +2913,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>se_firstdate varchar (10),</v>
+        <v>se_firstdate date (10),</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2861,8 +2926,8 @@
       <c r="C26" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>150</v>
+      <c r="D26" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E26" s="9">
         <v>10</v>
@@ -2876,7 +2941,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>se_secondno varchar (10),</v>
+        <v>se_secondno date (10),</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2889,8 +2954,8 @@
       <c r="C27" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>150</v>
+      <c r="D27" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E27" s="9">
         <v>10</v>
@@ -2904,7 +2969,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>se_seconddate varchar (10),</v>
+        <v>se_seconddate date (10),</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2917,8 +2982,8 @@
       <c r="C28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>150</v>
+      <c r="D28" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E28" s="9">
         <v>10</v>
@@ -2932,7 +2997,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>se_thirddate varchar (10),</v>
+        <v>se_thirddate date (10),</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4672,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5228,7 +5293,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" ref="L23:L29" si="1">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L26:L29" si="1">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5302,7 +5367,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5478,7 +5543,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -5492,7 +5557,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>i_date varchar (10),</v>
+        <v>i_date date (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5919,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA4437-5A37-4D7E-A51B-DA5C079F568B}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6448,6 +6513,21 @@
         <v>20</v>
       </c>
     </row>
+    <row r="31" spans="1:12">
+      <c r="J31" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="J32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6459,7 +6539,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6639,8 +6719,8 @@
       <c r="C12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>150</v>
+      <c r="D12" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -6654,7 +6734,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>e_date varchar (10),</v>
+        <v>e_date date (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7028,10 +7108,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7560,6 +7640,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="32" spans="1:12">
+      <c r="J32" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MomokaKajii\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC07DD-3E1F-4057-9E54-5FAA5B988A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BE1D1-7693-47B9-A5F6-2F68306EAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="72" yWindow="132" windowWidth="11256" windowHeight="12108" tabRatio="878" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1946,7 +1946,7 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2359,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3669,7 +3669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEEF410-CD86-4634-9B3E-8285FDEA27FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4737,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5367,7 +5367,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5987,7 +5987,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6538,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4AB04-4881-4AE9-863C-D4BDBAE4DA20}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7111,7 +7111,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BE1D1-7693-47B9-A5F6-2F68306EAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39103D-CDC1-4E0A-9780-EED6BA8187F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="72" yWindow="132" windowWidth="11256" windowHeight="12108" tabRatio="878" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="249">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1420,6 +1420,167 @@
     <t>二次</t>
     <rPh sb="0" eb="2">
       <t>ニジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※説明会は、インターンフラグで申し込み、日付で予約、出欠で参加を判断</t>
+    <rPh sb="1" eb="4">
+      <t>セツメイカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（日付が入力される）</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※外部設計書の詳細ページでは、選考グループにある</t>
+    <rPh sb="1" eb="6">
+      <t>ガイブセッケイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_confirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内々定確定</t>
+    <rPh sb="0" eb="3">
+      <t>ナイナイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空か〇 、内々定が決まったら〇</t>
+    <rPh sb="5" eb="8">
+      <t>ナイナイテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗状況</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_situation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適正検査受験前</t>
+  </si>
+  <si>
+    <t>適正検査受験済</t>
+  </si>
+  <si>
+    <t>書類選考中</t>
+  </si>
+  <si>
+    <t>書類選考合否</t>
+  </si>
+  <si>
+    <t>一次面接日程調整</t>
+  </si>
+  <si>
+    <t>一次選考実施中</t>
+  </si>
+  <si>
+    <t>一次選考合否</t>
+  </si>
+  <si>
+    <t>二次選考日程調整</t>
+  </si>
+  <si>
+    <t>二次選考実施中</t>
+  </si>
+  <si>
+    <t>二次選考合否</t>
+  </si>
+  <si>
+    <t>三次選考有無</t>
+  </si>
+  <si>
+    <t>三次選考日程調整</t>
+  </si>
+  <si>
+    <t>三次選考前</t>
+  </si>
+  <si>
+    <t>三次選考合否</t>
+  </si>
+  <si>
+    <t>内々定決定</t>
+  </si>
+  <si>
+    <t>内々定送付</t>
+  </si>
+  <si>
+    <t>内々定応諾</t>
+  </si>
+  <si>
+    <t>辞退</t>
+  </si>
+  <si>
+    <t>進捗状況(se_situation)</t>
+    <rPh sb="0" eb="4">
+      <t>シンチョクジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集ページではプルダウン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1428,7 +1589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,6 +1627,12 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1547,7 +1714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1588,6 +1755,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,8 +2116,8 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2357,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2526,7 +2696,7 @@
         <v>89</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L31" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L33" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>se_selectiondate date (10),</v>
       </c>
     </row>
@@ -3085,18 +3255,168 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>se_id int (4)</v>
+        <v>se_id int (4),</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="L32" t="s">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>se_confirm varchar (1),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" t="str">
+        <f>C33&amp;" "&amp;D33&amp;" "&amp;IF(E33&lt;&gt;"","("&amp;E33&amp;")","")&amp;IF(B38&lt;&gt;"",",","")</f>
+        <v>se_situation varchar (20),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="J37" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38">
         <f>+[1]Sheet1!$C$87+[1]Sheet1!$C$86</f>
         <v>0</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="J39" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="J40" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="J41" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="J42" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="J43" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="J44" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="J45" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="J46" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="J47" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="J48" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="14" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3111,7 +3431,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3669,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEEF410-CD86-4634-9B3E-8285FDEA27FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4213,7 +4533,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4737,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5364,10 +5684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A566B-E943-45A7-86E3-C51997608A25}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="B11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5745,10 +6065,10 @@
         <v>176</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5759,7 +6079,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>applyflag varchar (1)</v>
+        <v>applyflag date (10)</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5976,9 +6296,30 @@
         <v>207</v>
       </c>
     </row>
+    <row r="38" spans="10:10">
+      <c r="J38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5987,7 +6328,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6538,8 +6879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4AB04-4881-4AE9-863C-D4BDBAE4DA20}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7110,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B39103D-CDC1-4E0A-9780-EED6BA8187F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F5117B-445C-45EA-8B85-CE6717E9E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11232" yWindow="0" windowWidth="11520" windowHeight="10992" tabRatio="878" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2696,7 +2697,7 @@
         <v>89</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L33" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L32" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>se_selectiondate date (10),</v>
       </c>
     </row>
@@ -3431,7 +3432,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5057,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5613,7 +5614,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" ref="L26:L29" si="1">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5631,7 +5632,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5649,7 +5650,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5667,7 +5668,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5686,7 +5687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A566B-E943-45A7-86E3-C51997608A25}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6489,7 +6490,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>sf_category varchar (20),</v>
       </c>
     </row>
@@ -6515,7 +6516,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>sf_name varchar (20),</v>
       </c>
     </row>
@@ -6541,7 +6542,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
         <v>sf_score int (1),</v>
       </c>
     </row>
@@ -6593,7 +6594,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6611,7 +6612,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6629,7 +6630,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6647,7 +6648,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6665,7 +6666,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6683,7 +6684,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6701,7 +6702,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6719,7 +6720,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6737,7 +6738,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6755,7 +6756,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6773,7 +6774,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6791,7 +6792,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6809,7 +6810,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6827,7 +6828,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6845,7 +6846,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7046,7 +7047,7 @@
         <v>170</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>e_category varchar (20),</v>
       </c>
     </row>
@@ -7074,7 +7075,7 @@
         <v>171</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>e_date date (10),</v>
       </c>
     </row>
@@ -7144,7 +7145,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7162,7 +7163,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7180,7 +7181,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7198,7 +7199,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7216,7 +7217,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7234,7 +7235,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7252,7 +7253,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7270,7 +7271,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7288,7 +7289,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7306,7 +7307,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7324,7 +7325,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7342,7 +7343,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7360,7 +7361,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7378,7 +7379,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7396,7 +7397,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7616,7 +7617,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>st_category varchar (20),</v>
       </c>
     </row>
@@ -7642,7 +7643,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>st_name varchar (20),</v>
       </c>
     </row>
@@ -7668,7 +7669,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
         <v>st_score int (1),</v>
       </c>
     </row>
@@ -7720,7 +7721,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7738,7 +7739,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7756,7 +7757,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7774,7 +7775,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7792,7 +7793,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7810,7 +7811,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7828,7 +7829,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7846,7 +7847,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7864,7 +7865,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7882,7 +7883,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7900,7 +7901,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7918,7 +7919,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7936,7 +7937,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7954,7 +7955,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7972,7 +7973,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7F5117B-445C-45EA-8B85-CE6717E9E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D756C-2FB2-4423-BDB2-E5EF8EBA7064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11232" yWindow="0" windowWidth="11520" windowHeight="10992" tabRatio="878" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12576" yWindow="3240" windowWidth="13104" windowHeight="8964" tabRatio="878" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,11 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="244">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1483,20 +1482,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>se_confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内々定確定</t>
-    <rPh sb="0" eb="3">
-      <t>ナイナイテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>空か〇 、内々定が決まったら〇</t>
     <rPh sb="5" eb="8">
       <t>ナイナイテイ</t>
@@ -1536,28 +1521,13 @@
     <t>一次選考実施中</t>
   </si>
   <si>
-    <t>一次選考合否</t>
-  </si>
-  <si>
     <t>二次選考日程調整</t>
   </si>
   <si>
     <t>二次選考実施中</t>
   </si>
   <si>
-    <t>二次選考合否</t>
-  </si>
-  <si>
-    <t>三次選考有無</t>
-  </si>
-  <si>
     <t>三次選考日程調整</t>
-  </si>
-  <si>
-    <t>三次選考前</t>
-  </si>
-  <si>
-    <t>三次選考合否</t>
   </si>
   <si>
     <t>内々定決定</t>
@@ -1582,6 +1552,29 @@
     <t>編集ページではプルダウン</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三次選考実施中</t>
+    <rPh sb="4" eb="7">
+      <t>ジッシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不合格</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>フゴウカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1590,7 +1583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1634,6 +1627,20 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1715,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,6 +1766,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2528,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3256,35 +3266,27 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>se_id int (4),</v>
+        <v>se_id int (4)</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v>se_confirm varchar (1),</v>
+        <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3292,10 +3294,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>150</v>
@@ -3320,10 +3322,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="J37" s="13" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3332,92 +3334,77 @@
         <v>0</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="J39" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="J40" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="J41" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="J42" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="J43" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="J44" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="J45" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="J46" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="J47" s="14" t="s">
-        <v>238</v>
+      <c r="J47" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="J48" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="10:10">
       <c r="J52" s="14" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" s="14" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3432,7 +3419,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4534,7 +4521,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5058,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5614,7 +5601,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L26:L29" si="1">C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5632,7 +5619,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5650,7 +5637,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5668,7 +5655,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5687,7 +5674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A566B-E943-45A7-86E3-C51997608A25}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -6490,7 +6477,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>sf_category varchar (20),</v>
       </c>
     </row>
@@ -6516,7 +6503,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>sf_name varchar (20),</v>
       </c>
     </row>
@@ -6542,7 +6529,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>sf_score int (1),</v>
       </c>
     </row>
@@ -6594,7 +6581,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6612,7 +6599,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6630,7 +6617,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6648,7 +6635,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6666,7 +6653,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6684,7 +6671,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6702,7 +6689,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6720,7 +6707,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6738,7 +6725,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6756,7 +6743,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6774,7 +6761,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6792,7 +6779,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6810,7 +6797,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6828,7 +6815,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6846,7 +6833,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7047,7 +7034,7 @@
         <v>170</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>e_category varchar (20),</v>
       </c>
     </row>
@@ -7075,7 +7062,7 @@
         <v>171</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>e_date date (10),</v>
       </c>
     </row>
@@ -7145,7 +7132,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7163,7 +7150,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7181,7 +7168,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7199,7 +7186,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7217,7 +7204,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7235,7 +7222,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7253,7 +7240,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7271,7 +7258,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7289,7 +7276,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7307,7 +7294,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7325,7 +7312,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7343,7 +7330,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7361,7 +7348,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7379,7 +7366,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7397,7 +7384,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7453,7 +7440,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7617,7 +7604,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>st_category varchar (20),</v>
       </c>
     </row>
@@ -7643,7 +7630,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>st_name varchar (20),</v>
       </c>
     </row>
@@ -7669,7 +7656,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>st_score int (1),</v>
       </c>
     </row>
@@ -7721,7 +7708,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7739,7 +7726,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7757,7 +7744,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7775,7 +7762,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7793,7 +7780,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7811,7 +7798,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7829,7 +7816,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7847,7 +7834,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7865,7 +7852,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7883,7 +7870,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7901,7 +7888,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7919,7 +7906,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7937,7 +7924,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7955,7 +7942,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7973,7 +7960,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647D756C-2FB2-4423-BDB2-E5EF8EBA7064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58BE2D0-E8CC-44E1-A8AC-44FC0D8B00C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12576" yWindow="3240" windowWidth="13104" windowHeight="8964" tabRatio="878" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2540,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -5046,7 +5046,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6868,7 +6868,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7439,7 +7439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58BE2D0-E8CC-44E1-A8AC-44FC0D8B00C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4879E7-FCA4-46DE-8FB2-19E8C0CE7D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="246">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -679,33 +679,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内々定応諾</t>
-    <rPh sb="0" eb="3">
-      <t>ナイナイテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オウダク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>se_earlyno</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内々定応諾後辞退</t>
-    <rPh sb="0" eb="3">
-      <t>ナイナイテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>オウダク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1478,16 +1452,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空か〇 、内々定が決まったら〇</t>
-    <rPh sb="5" eb="8">
-      <t>ナイナイテイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1575,6 +1539,47 @@
     </r>
     <rPh sb="0" eb="3">
       <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定までの日数</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se_decide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応諾(内々定)</t>
+    <rPh sb="0" eb="2">
+      <t>オウダク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ナイナイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞退（内々定応諾後）</t>
+    <rPh sb="0" eb="2">
+      <t>ジタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターン種類と、説明会</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>セツメイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2208,7 +2213,7 @@
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2231,7 +2236,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>24</v>
@@ -2246,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>25</v>
@@ -2540,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2600,7 +2605,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2608,7 +2613,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2658,13 +2663,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="9">
         <v>6</v>
@@ -2672,7 +2677,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="3" t="s">
@@ -2693,8 +2698,8 @@
       <c r="C11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>212</v>
+      <c r="D11" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E11" s="9">
         <v>10</v>
@@ -2707,8 +2712,8 @@
         <v>89</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L32" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
-        <v>se_selectiondate date (10),</v>
+        <f t="shared" ref="L11:L34" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <v>se_selectiondate varchar (10),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2722,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E12" s="9">
         <v>3</v>
@@ -2748,7 +2753,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -2774,7 +2779,7 @@
         <v>104</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -2784,7 +2789,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2801,8 +2806,8 @@
       <c r="C15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>212</v>
+      <c r="D15" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E15" s="9">
         <v>10</v>
@@ -2816,7 +2821,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>se_gettextdate date (10),</v>
+        <v>se_gettextdate varchar (10),</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2829,8 +2834,8 @@
       <c r="C16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>212</v>
+      <c r="D16" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E16" s="9">
         <v>10</v>
@@ -2844,7 +2849,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>se_no date (10),</v>
+        <v>se_no varchar (10),</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2857,8 +2862,8 @@
       <c r="C17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>212</v>
+      <c r="D17" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E17" s="9">
         <v>10</v>
@@ -2872,7 +2877,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>se_ok date (10),</v>
+        <v>se_ok varchar (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2886,7 +2891,7 @@
         <v>112</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="9">
         <v>100</v>
@@ -2911,8 +2916,8 @@
       <c r="C19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>212</v>
+      <c r="D19" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E19" s="9">
         <v>10</v>
@@ -2926,7 +2931,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>se_sendok date (10),</v>
+        <v>se_sendok varchar (10),</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2934,13 +2939,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>212</v>
+      <c r="D20" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E20" s="9">
         <v>10</v>
@@ -2954,7 +2959,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v>se_earlyok date (10),</v>
+        <v>se_earlyok varchar (10),</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2962,13 +2967,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>212</v>
+        <v>117</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -2982,7 +2987,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v>se_earlyno date (10),</v>
+        <v>se_earlyno varchar (10),</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2990,13 +2995,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -3006,7 +3011,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
@@ -3018,13 +3023,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -3034,7 +3039,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
@@ -3046,13 +3051,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>212</v>
+        <v>122</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E24" s="9">
         <v>10</v>
@@ -3066,7 +3071,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>se_firstno date (10),</v>
+        <v>se_firstno varchar (10),</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3074,13 +3079,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>212</v>
+        <v>124</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E25" s="9">
         <v>10</v>
@@ -3094,7 +3099,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v>se_firstdate date (10),</v>
+        <v>se_firstdate varchar (10),</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3102,13 +3107,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>212</v>
+        <v>126</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E26" s="9">
         <v>10</v>
@@ -3122,7 +3127,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
-        <v>se_secondno date (10),</v>
+        <v>se_secondno varchar (10),</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3130,13 +3135,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>212</v>
+        <v>128</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E27" s="9">
         <v>10</v>
@@ -3150,7 +3155,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
-        <v>se_seconddate date (10),</v>
+        <v>se_seconddate varchar (10),</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3158,13 +3163,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>212</v>
+        <v>130</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E28" s="9">
         <v>10</v>
@@ -3178,7 +3183,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
-        <v>se_thirddate date (10),</v>
+        <v>se_thirddate varchar (10),</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3186,13 +3191,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E29" s="9">
         <v>1</v>
@@ -3202,7 +3207,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
@@ -3217,10 +3222,10 @@
         <v>11</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="9">
         <v>200</v>
@@ -3240,25 +3245,25 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E31" s="3">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
@@ -3266,27 +3271,33 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" si="0"/>
-        <v>se_id int (4)</v>
+        <v>se_id int (4),</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3">
         <v>23</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="3">
+        <v>20</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="J32" s="3"/>
       <c r="L32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  ,</v>
+        <v>se_situation varchar (20),</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -3294,38 +3305,44 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>150</v>
+        <v>242</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E33" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="9"/>
       <c r="L33" t="str">
-        <f>C33&amp;" "&amp;D33&amp;" "&amp;IF(E33&lt;&gt;"","("&amp;E33&amp;")","")&amp;IF(B38&lt;&gt;"",",","")</f>
-        <v>se_situation varchar (20),</v>
+        <f t="shared" si="0"/>
+        <v>se_decide varchar (10)</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="L34" t="s">
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="L35" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="J37" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3334,77 +3351,77 @@
         <v>0</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="J39" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="J40" s="14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="J41" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="J42" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="J43" s="14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="J44" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="J45" s="14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="J46" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="J47" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="J48" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" s="14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="10:10">
       <c r="J52" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3533,27 +3550,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3565,13 +3582,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -3579,7 +3596,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3599,7 +3616,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -3607,7 +3624,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3627,7 +3644,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -3635,11 +3652,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3657,7 +3674,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -3665,13 +3682,13 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3689,7 +3706,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -3697,13 +3714,13 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -4092,25 +4109,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -4132,7 +4149,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
@@ -4140,11 +4157,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4162,7 +4179,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
@@ -4170,11 +4187,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4192,7 +4209,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -4202,7 +4219,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4220,7 +4237,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3">
         <v>1000</v>
@@ -4571,7 +4588,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4635,25 +4652,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -4675,7 +4692,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>50</v>
@@ -4701,7 +4718,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
@@ -4721,13 +4738,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -5046,7 +5063,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5096,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5160,25 +5177,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -5200,7 +5217,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5208,7 +5225,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5228,7 +5245,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -5254,7 +5271,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -5280,7 +5297,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -5306,7 +5323,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -5332,7 +5349,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="3">
         <v>20</v>
@@ -5358,7 +5375,7 @@
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -5366,7 +5383,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -5386,7 +5403,7 @@
         <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="3">
         <v>50</v>
@@ -5412,7 +5429,7 @@
         <v>78</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="3">
         <v>50</v>
@@ -5438,7 +5455,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -5448,7 +5465,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -5466,7 +5483,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -5476,7 +5493,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
@@ -5494,7 +5511,7 @@
         <v>84</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -5504,7 +5521,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
@@ -5516,13 +5533,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -5532,41 +5549,29 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v>s_other varchar (1),</v>
+        <v>s_other varchar (1)</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>alleditflag int (1)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5674,8 +5679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28A566B-E943-45A7-86E3-C51997608A25}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5789,13 +5794,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
@@ -5803,7 +5808,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -5825,7 +5830,7 @@
         <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5834,7 +5839,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
         <v>i_category varchar (20),</v>
@@ -5851,7 +5858,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -5861,7 +5868,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -5879,7 +5886,7 @@
         <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -5889,7 +5896,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -5907,7 +5914,7 @@
         <v>92</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -5917,7 +5924,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -5935,7 +5942,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -5945,7 +5952,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -5963,7 +5970,7 @@
         <v>96</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -5973,7 +5980,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -5988,22 +5995,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
@@ -6019,13 +6026,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -6035,7 +6042,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -6047,13 +6054,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E19" s="3">
         <v>10</v>
@@ -6063,29 +6070,41 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>applyflag date (10)</v>
+        <v>applyflag date (10),</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>alleditflag int (1)</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -6256,52 +6275,52 @@
     </row>
     <row r="32" spans="1:12">
       <c r="J32" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="10:10">
       <c r="J38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="10:10">
       <c r="J41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6430,13 +6449,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
@@ -6444,7 +6463,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -6460,13 +6479,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -6489,10 +6508,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -6512,13 +6531,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -6538,25 +6557,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
@@ -6844,17 +6863,17 @@
     </row>
     <row r="31" spans="1:12">
       <c r="J31" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="J32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6868,7 +6887,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6927,7 +6946,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6985,13 +7004,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
@@ -6999,7 +7018,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -7015,13 +7034,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -7031,7 +7050,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
@@ -7046,10 +7065,10 @@
         <v>89</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>212</v>
+        <v>142</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -7059,11 +7078,11 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>e_date date (10),</v>
+        <v>e_date varchar (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7071,25 +7090,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="3">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
@@ -7395,38 +7414,38 @@
     </row>
     <row r="32" spans="1:12">
       <c r="J32" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="10:10">
       <c r="J38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7439,7 +7458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7499,7 +7518,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7557,13 +7576,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
@@ -7571,7 +7590,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -7587,13 +7606,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -7616,10 +7635,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -7639,13 +7658,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -7665,25 +7684,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" s="3">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
@@ -7971,22 +7990,22 @@
     </row>
     <row r="32" spans="1:12">
       <c r="J32" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="10:10">
       <c r="J33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="10:10">
       <c r="J34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4879E7-FCA4-46DE-8FB2-19E8C0CE7D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64592BD2-819B-4D91-BF7D-00DD685FB87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="253">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1477,9 +1477,6 @@
   </si>
   <si>
     <t>書類選考合否</t>
-  </si>
-  <si>
-    <t>一次面接日程調整</t>
   </si>
   <si>
     <t>一次選考実施中</t>
@@ -1581,6 +1578,36 @@
     <rPh sb="9" eb="12">
       <t>セツメイカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一次選考日程調整</t>
+    <rPh sb="2" eb="4">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/0505</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/0506</t>
+  </si>
+  <si>
+    <t>2020/0507</t>
+  </si>
+  <si>
+    <t>2020/0508</t>
+  </si>
+  <si>
+    <t>2020/0509</t>
+  </si>
+  <si>
+    <t>2020/0510</t>
+  </si>
+  <si>
+    <t>インターンID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2545,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2663,28 +2690,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="9">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
       </c>
     </row>
@@ -2692,27 +2723,29 @@
       <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>99</v>
+      <c r="B11" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
-        <v>89</v>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L34" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>se_selectiondate varchar (10),</v>
       </c>
     </row>
@@ -2721,24 +2754,26 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
         <v>se_score int (3),</v>
       </c>
     </row>
@@ -2747,16 +2782,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E13" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -2764,7 +2799,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(B15&lt;&gt;"",",","")</f>
         <v>se_textscore int (1),</v>
       </c>
     </row>
@@ -2773,13 +2808,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -2788,11 +2823,9 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
-        <v>161</v>
-      </c>
+      <c r="J14" s="9"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(B16&lt;&gt;"",",","")</f>
         <v>se_textresult varchar (1),</v>
       </c>
     </row>
@@ -2801,26 +2834,26 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(B17&lt;&gt;"",",","")</f>
         <v>se_gettextdate varchar (10),</v>
       </c>
     </row>
@@ -2829,10 +2862,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>148</v>
@@ -2848,7 +2881,7 @@
         <v>89</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(B18&lt;&gt;"",",","")</f>
         <v>se_no varchar (10),</v>
       </c>
     </row>
@@ -2857,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>148</v>
@@ -2876,7 +2909,7 @@
         <v>89</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(B19&lt;&gt;"",",","")</f>
         <v>se_ok varchar (10),</v>
       </c>
     </row>
@@ -2885,24 +2918,26 @@
         <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E18" s="9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(B20&lt;&gt;"",",","")</f>
         <v>se_noreason varchar (100),</v>
       </c>
     </row>
@@ -2911,26 +2946,24 @@
         <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E19" s="9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="J19" s="9"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(B21&lt;&gt;"",",","")</f>
         <v>se_sendok varchar (10),</v>
       </c>
     </row>
@@ -2939,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>148</v>
@@ -2958,7 +2991,7 @@
         <v>89</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(B22&lt;&gt;"",",","")</f>
         <v>se_earlyok varchar (10),</v>
       </c>
     </row>
@@ -2967,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>148</v>
@@ -2986,7 +3019,7 @@
         <v>89</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(B23&lt;&gt;"",",","")</f>
         <v>se_earlyno varchar (10),</v>
       </c>
     </row>
@@ -2995,26 +3028,26 @@
         <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E22" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(B24&lt;&gt;"",",","")</f>
         <v>se_firstresult varchar (1),</v>
       </c>
     </row>
@@ -3023,10 +3056,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>148</v>
@@ -3042,7 +3075,7 @@
         <v>161</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(B25&lt;&gt;"",",","")</f>
         <v>se_secondresult varchar (1),</v>
       </c>
     </row>
@@ -3051,26 +3084,26 @@
         <v>15</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E24" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(B26&lt;&gt;"",",","")</f>
         <v>se_firstno varchar (10),</v>
       </c>
     </row>
@@ -3079,10 +3112,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>148</v>
@@ -3098,7 +3131,7 @@
         <v>89</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(B27&lt;&gt;"",",","")</f>
         <v>se_firstdate varchar (10),</v>
       </c>
     </row>
@@ -3107,10 +3140,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>148</v>
@@ -3126,7 +3159,7 @@
         <v>89</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(B28&lt;&gt;"",",","")</f>
         <v>se_secondno varchar (10),</v>
       </c>
     </row>
@@ -3135,10 +3168,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>148</v>
@@ -3154,7 +3187,7 @@
         <v>89</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(B29&lt;&gt;"",",","")</f>
         <v>se_seconddate varchar (10),</v>
       </c>
     </row>
@@ -3163,10 +3196,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>148</v>
@@ -3182,7 +3215,7 @@
         <v>89</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(B30&lt;&gt;"",",","")</f>
         <v>se_thirddate varchar (10),</v>
       </c>
     </row>
@@ -3191,26 +3224,26 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E29" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f>C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(B31&lt;&gt;"",",","")</f>
         <v>se_thirdresult varchar (1),</v>
       </c>
     </row>
@@ -3219,24 +3252,26 @@
         <v>21</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E30" s="9">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="L30" t="str">
-        <f t="shared" si="0"/>
+        <f>C31&amp;" "&amp;D31&amp;" "&amp;IF(E31&lt;&gt;"","("&amp;E31&amp;")","")&amp;IF(B10&lt;&gt;"",",","")</f>
         <v>se_remarks varchar (200),</v>
       </c>
     </row>
@@ -3244,33 +3279,25 @@
       <c r="A31" s="3">
         <v>22</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="3">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="9">
+        <v>200</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="L31" t="str">
-        <f t="shared" si="0"/>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B32&lt;&gt;"",",","")</f>
         <v>se_id int (4),</v>
       </c>
     </row>
@@ -3296,7 +3323,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="L32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L32:L34" si="0">C32&amp;" "&amp;D32&amp;" "&amp;IF(E32&lt;&gt;"","("&amp;E32&amp;")","")&amp;IF(B33&lt;&gt;"",",","")</f>
         <v>se_situation varchar (20),</v>
       </c>
     </row>
@@ -3305,10 +3332,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>148</v>
@@ -3339,10 +3366,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="J37" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
         <v>237</v>
-      </c>
-      <c r="K37" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3370,58 +3397,58 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="J42" s="14" t="s">
-        <v>228</v>
+      <c r="J42" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="J43" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="J44" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="J45" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="J46" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="J47" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="J48" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="10:10">
       <c r="J49" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="10:10">
       <c r="J50" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="10:10">
       <c r="J51" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="10:10">
       <c r="J52" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3435,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3994,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEEF410-CD86-4634-9B3E-8285FDEA27FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4143,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -4538,7 +4565,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5062,7 +5089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5541BC-A688-491F-B946-A3BAC9EF4DAD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -5680,7 +5707,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5794,28 +5821,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>252</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L20" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
       </c>
     </row>
@@ -5824,27 +5855,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>245</v>
+        <v>54</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>i_category varchar (20),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
+        <v>i_id int (4),</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -5852,27 +5885,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>i_date date (10),</v>
+        <f t="shared" ref="L11:L23" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
+        <v>i_category varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -5880,27 +5913,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>i_meeting varchar (1),</v>
+        <v>i_date date (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -5908,10 +5941,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>148</v>
@@ -5928,7 +5961,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v>i_submit varchar (1),</v>
+        <v>i_meeting varchar (1),</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5936,10 +5969,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>148</v>
@@ -5956,7 +5989,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>i_acceptance varchar (1),</v>
+        <v>i_submit varchar (1),</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5964,10 +5997,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>148</v>
@@ -5984,7 +6017,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>i_document varchar (1),</v>
+        <v>i_acceptance varchar (1),</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5992,33 +6025,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>156</v>
+        <v>97</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>i_id int (4),</v>
+        <v>i_document varchar (1),</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6074,7 +6101,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>applyflag date (10),</v>
+        <v>applyflag date (10)</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6119,9 +6146,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" ref="L21:L29" si="1">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L21" t="e">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -6138,7 +6165,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6155,9 +6182,9 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
+      <c r="L23" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(B25&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -6174,7 +6201,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L21:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6335,7 +6362,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6449,28 +6476,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
       </c>
     </row>
@@ -6478,25 +6509,29 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>144</v>
+      <c r="B11" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L18" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>sf_category varchar (20),</v>
       </c>
     </row>
@@ -6505,10 +6540,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>148</v>
@@ -6531,16 +6566,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6549,41 +6584,33 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>sf_score int (1),</v>
+        <v>sf_score int (1)</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>sf_id int (4)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6600,7 +6627,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6618,7 +6645,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6636,7 +6663,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6654,7 +6681,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6672,7 +6699,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L15:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6884,10 +6911,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4AB04-4881-4AE9-863C-D4BDBAE4DA20}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7004,28 +7031,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
       </c>
     </row>
@@ -7033,27 +7064,29 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>141</v>
+      <c r="B11" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L12" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>e_category varchar (20),</v>
       </c>
     </row>
@@ -7062,26 +7095,26 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B10&lt;&gt;"",",","")</f>
         <v>e_date varchar (10),</v>
       </c>
     </row>
@@ -7089,34 +7122,28 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>149</v>
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>e_id int (4)</v>
+        <v>169</v>
+      </c>
+      <c r="L13" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7132,9 +7159,9 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L14" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7151,7 +7178,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7169,7 +7196,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7187,7 +7214,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7205,7 +7232,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7223,7 +7250,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7241,7 +7268,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7259,7 +7286,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7277,7 +7304,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7295,7 +7322,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7313,7 +7340,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7331,7 +7358,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7349,7 +7376,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7367,7 +7394,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7385,7 +7412,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7403,7 +7430,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7418,34 +7445,120 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="2:10">
+      <c r="B33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="J33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
+        <v>246</v>
+      </c>
       <c r="J34" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" t="s">
+        <v>247</v>
+      </c>
       <c r="J35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
       <c r="J36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" t="s">
+        <v>249</v>
+      </c>
       <c r="J37" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="10:10">
+    <row r="38" spans="2:10">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" t="s">
+        <v>250</v>
+      </c>
       <c r="J38" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -7459,7 +7572,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L10" sqref="L10:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7576,28 +7689,32 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>150</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(B11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
       </c>
     </row>
@@ -7605,25 +7722,29 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>136</v>
+      <c r="B11" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L11" t="str">
-        <f t="shared" ref="L11:L13" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L11:L15" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
         <v>st_category varchar (20),</v>
       </c>
     </row>
@@ -7632,10 +7753,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>148</v>
@@ -7658,16 +7779,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -7676,41 +7797,33 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>st_score int (1),</v>
+        <v>st_score int (1)</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>st_id int (4)</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7727,7 +7840,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="1">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7745,7 +7858,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L15:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64592BD2-819B-4D91-BF7D-00DD685FB87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46349E44-C280-493F-98D1-7C7492C33692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1560" yWindow="888" windowWidth="12168" windowHeight="11856" tabRatio="878" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2572,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626956A8-1372-4154-950A-AAC06F893023}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2715,7 +2715,7 @@
         <v>15</v>
       </c>
       <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L29" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(B12&lt;&gt;"",",","")</f>
         <v>s_id int (6),</v>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>54</v>
       </c>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_selectiondate varchar (10),</v>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
         <v>89</v>
       </c>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_score int (3),</v>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(B15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_textscore int (1),</v>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(B16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_textresult varchar (1),</v>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
         <v>161</v>
       </c>
       <c r="L15" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(B17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_gettextdate varchar (10),</v>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
         <v>89</v>
       </c>
       <c r="L16" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(B18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_no varchar (10),</v>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
         <v>89</v>
       </c>
       <c r="L17" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(B19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_ok varchar (10),</v>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
         <v>89</v>
       </c>
       <c r="L18" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(B20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_noreason varchar (100),</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="L19" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(B21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_sendok varchar (10),</v>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
         <v>89</v>
       </c>
       <c r="L20" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(B22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_earlyok varchar (10),</v>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>89</v>
       </c>
       <c r="L21" t="str">
-        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(B23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_earlyno varchar (10),</v>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
         <v>89</v>
       </c>
       <c r="L22" t="str">
-        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(B24&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_firstresult varchar (1),</v>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
         <v>161</v>
       </c>
       <c r="L23" t="str">
-        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(B25&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_secondresult varchar (1),</v>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
         <v>161</v>
       </c>
       <c r="L24" t="str">
-        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(B26&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_firstno varchar (10),</v>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>89</v>
       </c>
       <c r="L25" t="str">
-        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(B27&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_firstdate varchar (10),</v>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
         <v>89</v>
       </c>
       <c r="L26" t="str">
-        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(B28&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_secondno varchar (10),</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>89</v>
       </c>
       <c r="L27" t="str">
-        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(B29&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_seconddate varchar (10),</v>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
         <v>89</v>
       </c>
       <c r="L28" t="str">
-        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(B30&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_thirddate varchar (10),</v>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
         <v>89</v>
       </c>
       <c r="L29" t="str">
-        <f>C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(B31&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>se_thirdresult varchar (1),</v>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="L32" t="str">
-        <f t="shared" ref="L32:L34" si="0">C32&amp;" "&amp;D32&amp;" "&amp;IF(E32&lt;&gt;"","("&amp;E32&amp;")","")&amp;IF(B33&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L32:L34" si="1">C32&amp;" "&amp;D32&amp;" "&amp;IF(E32&lt;&gt;"","("&amp;E32&amp;")","")&amp;IF(B33&lt;&gt;"",",","")</f>
         <v>se_situation varchar (20),</v>
       </c>
     </row>
@@ -3349,13 +3349,13 @@
       <c r="I33" s="3"/>
       <c r="J33" s="9"/>
       <c r="L33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>se_decide varchar (10)</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="L34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3462,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4021,7 +4021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEEF410-CD86-4634-9B3E-8285FDEA27FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4565,7 +4565,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="K22" sqref="K22:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5707,7 +5707,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5811,9 +5811,9 @@
       <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Intern (</v>
+      <c r="L9" s="6" t="b">
+        <f>I6="create table "&amp;C5&amp;" ("</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -5904,7 +5904,7 @@
         <v>244</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L11:L23" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L12:L22" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(B14&lt;&gt;"",",","")</f>
         <v>i_category varchar (20),</v>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" ref="L21:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L24:L29" si="1">C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6361,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAA4437-5A37-4D7E-A51B-DA5C079F568B}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6699,7 +6699,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" ref="L15:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L19:L29" si="1">C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6914,7 +6914,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L9" sqref="L9:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7572,7 +7572,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L15"/>
+      <selection activeCell="L9" sqref="L9:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7858,7 +7858,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/DB定義書.xlsx
+++ b/DB定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\YSL7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46349E44-C280-493F-98D1-7C7492C33692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A116DC0-CF8C-4824-B398-B48686CD0150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1560" yWindow="888" windowWidth="12168" windowHeight="11856" tabRatio="878" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="255">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1608,6 +1608,20 @@
   </si>
   <si>
     <t>インターンID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松野</t>
+    <rPh sb="0" eb="2">
+      <t>マツノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤原</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3462,7 +3476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9:L15"/>
     </sheetView>
   </sheetViews>
@@ -5707,7 +5721,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6913,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A4AB04-4881-4AE9-863C-D4BDBAE4DA20}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7569,10 +7583,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4638B7F5-B6ED-49D8-8F5F-A79B2F597FA1}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8102,23 +8116,149 @@
       </c>
     </row>
     <row r="32" spans="1:12">
+      <c r="C32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="J32" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="3:10">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="J33" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="3:10">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
       <c r="J34" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="3:10">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
       <c r="J35" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
